--- a/eCert/Uploads/loi.xlsx
+++ b/eCert/Uploads/loi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2799CDC-DFF9-47D7-A05A-E13590EE64E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AC5F69-151B-4423-826D-F690ED50C4E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -369,6 +369,9 @@
     <t>Hà Phúc Trí</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoàng Đức </t>
+  </si>
+  <si>
     <t xml:space="preserve">Lưu Trang Anh </t>
   </si>
   <si>
@@ -381,6 +384,12 @@
     <t>Phạm Tiến Dũng 1</t>
   </si>
   <si>
+    <t>Hà Nội 12</t>
+  </si>
+  <si>
+    <t>Hà Nội 23</t>
+  </si>
+  <si>
     <t>ĐH200323</t>
   </si>
   <si>
@@ -388,9 +397,6 @@
   </si>
   <si>
     <t>ĐH200324</t>
-  </si>
-  <si>
-    <t>Hoàng Đức @@</t>
   </si>
 </sst>
 </file>
@@ -783,7 +789,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="5">
         <v>36396</v>
@@ -1074,7 +1080,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -1112,7 +1118,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="5">
         <v>36347</v>
@@ -1188,7 +1194,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" s="5">
         <v>36373</v>
@@ -1241,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>58</v>
@@ -1313,9 +1319,7 @@
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>26</v>
@@ -1468,9 +1472,7 @@
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
         <v>90</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>15</v>
@@ -1633,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1709,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1747,7 +1749,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
